--- a/data/raw/Sites.xlsx
+++ b/data/raw/Sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GERRATY/Fucus_Wrack/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB4B4C1-AD70-F34D-8C1B-E35FC54692E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AE181-DE4B-0F4E-A74B-378FA327F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{C13561F4-3F05-F14C-8624-E4029442A072}"/>
   </bookViews>
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAF251B-86D2-7C47-AC53-CB9E517C0DC9}">
   <dimension ref="A1:BX30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AO2" s="4">
         <v>85</v>
